--- a/az fw policy migration to FortiGate/example.xlsx
+++ b/az fw policy migration to FortiGate/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aholddelhaize-my.sharepoint.com/personal/filip_djordjevic_delhaize_rs/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E96920-C0A3-48A5-A023-0088209EF553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{C5E96920-C0A3-48A5-A023-0088209EF553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CC72808-B08B-4104-996C-9BE5566084CB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{897AFA8E-BE91-4930-971B-BD2C7B68E6CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="136">
   <si>
     <t>edit 1</t>
   </si>
@@ -83,361 +83,367 @@
     <t>all</t>
   </si>
   <si>
+    <t>edit 4</t>
+  </si>
+  <si>
+    <t>edit 5</t>
+  </si>
+  <si>
+    <t>edit 6</t>
+  </si>
+  <si>
+    <t>edit 7</t>
+  </si>
+  <si>
+    <t>edit 8</t>
+  </si>
+  <si>
+    <t>edit 9</t>
+  </si>
+  <si>
+    <t>edit 10</t>
+  </si>
+  <si>
+    <t>edit 11</t>
+  </si>
+  <si>
+    <t>edit 12</t>
+  </si>
+  <si>
+    <t>edit 13</t>
+  </si>
+  <si>
+    <t>edit 14</t>
+  </si>
+  <si>
+    <t>edit 15</t>
+  </si>
+  <si>
+    <t>h-192.168.192.55</t>
+  </si>
+  <si>
+    <t>edit 16</t>
+  </si>
+  <si>
+    <t>edit 17</t>
+  </si>
+  <si>
+    <t>edit 18</t>
+  </si>
+  <si>
+    <t>edit 19</t>
+  </si>
+  <si>
+    <t>edit 20</t>
+  </si>
+  <si>
+    <t>edit 21</t>
+  </si>
+  <si>
+    <t>edit 22</t>
+  </si>
+  <si>
+    <t>edit 23</t>
+  </si>
+  <si>
+    <t>edit 24</t>
+  </si>
+  <si>
+    <t>edit 25</t>
+  </si>
+  <si>
+    <t>edit 26</t>
+  </si>
+  <si>
+    <t>edit 27</t>
+  </si>
+  <si>
+    <t>edit 28</t>
+  </si>
+  <si>
+    <t>edit 29</t>
+  </si>
+  <si>
+    <t>group1</t>
+  </si>
+  <si>
+    <t>group2</t>
+  </si>
+  <si>
+    <t>group3</t>
+  </si>
+  <si>
+    <t>group4</t>
+  </si>
+  <si>
+    <t>group5</t>
+  </si>
+  <si>
+    <t>h-192.168.1.1</t>
+  </si>
+  <si>
+    <t>group6</t>
+  </si>
+  <si>
+    <t>group7</t>
+  </si>
+  <si>
+    <t>n-172.17.1.0_24 n-172.17.2.0_25</t>
+  </si>
+  <si>
+    <t>n-172.17.2.0_24</t>
+  </si>
+  <si>
+    <t>group8</t>
+  </si>
+  <si>
+    <t>group9</t>
+  </si>
+  <si>
+    <t>n-10.0.0.0_24</t>
+  </si>
+  <si>
+    <t>n-10.10.0.0_24</t>
+  </si>
+  <si>
+    <t>n-10.100.2.0_29</t>
+  </si>
+  <si>
+    <t>n-10.0.0.0_25</t>
+  </si>
+  <si>
+    <t>n-10.10.0.0_25</t>
+  </si>
+  <si>
+    <t>n-10.100.2.0_30</t>
+  </si>
+  <si>
+    <t>n-10.0.0.0_26</t>
+  </si>
+  <si>
+    <t>n-192.168.1.0_24</t>
+  </si>
+  <si>
+    <t>n-192.168.1.0_25</t>
+  </si>
+  <si>
+    <t>n-192.168.1.0_26</t>
+  </si>
+  <si>
+    <t>n-10.88.12.8_30</t>
+  </si>
+  <si>
+    <t>group10</t>
+  </si>
+  <si>
+    <t>group11</t>
+  </si>
+  <si>
+    <t>group12</t>
+  </si>
+  <si>
+    <t>group13</t>
+  </si>
+  <si>
+    <t>group14</t>
+  </si>
+  <si>
+    <t>h-192.168.182.182</t>
+  </si>
+  <si>
+    <t>h-192.168.1.1 h-10.12.2.2</t>
+  </si>
+  <si>
+    <t>h-10.14.10.10 h-10.12.12.12</t>
+  </si>
+  <si>
+    <t>h-192.168.40.23</t>
+  </si>
+  <si>
+    <t>h-10.13.24.24 h-10.12.12.12</t>
+  </si>
+  <si>
+    <t>h-192.168.2.2</t>
+  </si>
+  <si>
+    <t>h-192.168.3.3 h-192.168.4.4</t>
+  </si>
+  <si>
+    <t>h-10.13.24.24 h-10.12.12.13</t>
+  </si>
+  <si>
+    <t>h-192.168.2.3</t>
+  </si>
+  <si>
+    <t>h-192.168.3.3 h-192.168.4.5</t>
+  </si>
+  <si>
+    <t>h-10.13.24.24 h-10.12.12.14</t>
+  </si>
+  <si>
+    <t>h-192.168.17.13</t>
+  </si>
+  <si>
+    <t>h-10.10.10.10 h-192.168.192.192</t>
+  </si>
+  <si>
+    <t>n-10.10.10.0_24</t>
+  </si>
+  <si>
+    <t>comment1</t>
+  </si>
+  <si>
+    <t>comment2</t>
+  </si>
+  <si>
+    <t>comment3</t>
+  </si>
+  <si>
+    <t>comment4</t>
+  </si>
+  <si>
+    <t>comment5</t>
+  </si>
+  <si>
+    <t>comment6</t>
+  </si>
+  <si>
+    <t>comment7</t>
+  </si>
+  <si>
+    <t>comment8</t>
+  </si>
+  <si>
+    <t>comment9</t>
+  </si>
+  <si>
+    <t>comment10</t>
+  </si>
+  <si>
+    <t>comment11</t>
+  </si>
+  <si>
+    <t>comment12</t>
+  </si>
+  <si>
+    <t>comment13</t>
+  </si>
+  <si>
+    <t>comment14</t>
+  </si>
+  <si>
+    <t>comment15</t>
+  </si>
+  <si>
+    <t>comment16</t>
+  </si>
+  <si>
+    <t>comment17</t>
+  </si>
+  <si>
+    <t>comment18</t>
+  </si>
+  <si>
+    <t>comment19</t>
+  </si>
+  <si>
+    <t>comment20</t>
+  </si>
+  <si>
+    <t>comment21</t>
+  </si>
+  <si>
+    <t>comment22</t>
+  </si>
+  <si>
+    <t>comment23</t>
+  </si>
+  <si>
+    <t>comment24</t>
+  </si>
+  <si>
+    <t>comment25</t>
+  </si>
+  <si>
+    <t>comment26</t>
+  </si>
+  <si>
+    <t>comment27</t>
+  </si>
+  <si>
+    <t>comment28</t>
+  </si>
+  <si>
+    <t>comment29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo-request echo-reply s-TCP-25 s-UDP-25 s-TCP-53 s-UDP-53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo-request echo-reply s-TCP-3269 s-UDP-3269 s-TCP-49150-65535 s-UDP-49150-65535 </t>
+  </si>
+  <si>
     <t xml:space="preserve">s-TCP-123 s-UDP-123 </t>
   </si>
   <si>
-    <t>edit 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">s-TCP-53 s-UDP-53 </t>
   </si>
   <si>
-    <t>edit 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">s-UDP-1194 s-UDP-2114 </t>
   </si>
   <si>
-    <t>edit 6</t>
-  </si>
-  <si>
-    <t>edit 7</t>
-  </si>
-  <si>
-    <t>edit 8</t>
-  </si>
-  <si>
-    <t>edit 9</t>
+    <t xml:space="preserve">s-UDP-111 s-UDP-222 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo-request echo-reply s-TCP-161 s-UDP-161 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo-request echo-reply s-TCP-22 s-UDP-22 s-TCP-1431 s-UDP-1431 </t>
   </si>
   <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>edit 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-TCP-443 s-TCP-22 </t>
-  </si>
-  <si>
-    <t>edit 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">s-TCP-443 </t>
   </si>
   <si>
-    <t>edit 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-TCP-443 s-TCP-80 </t>
-  </si>
-  <si>
-    <t>edit 13</t>
-  </si>
-  <si>
-    <t>edit 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-TCP-1437 s-TCP-1561 </t>
-  </si>
-  <si>
-    <t>edit 15</t>
-  </si>
-  <si>
-    <t>h-192.168.192.55</t>
+    <t xml:space="preserve">s-TCP-22 </t>
   </si>
   <si>
     <t xml:space="preserve">s-TCP-1437 </t>
   </si>
   <si>
-    <t>edit 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-TCP-1561 </t>
-  </si>
-  <si>
-    <t>edit 17</t>
-  </si>
-  <si>
-    <t>edit 18</t>
-  </si>
-  <si>
-    <t>edit 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-TCP-1476 </t>
-  </si>
-  <si>
-    <t>edit 20</t>
-  </si>
-  <si>
-    <t>edit 21</t>
-  </si>
-  <si>
-    <t>edit 22</t>
-  </si>
-  <si>
-    <t>edit 23</t>
-  </si>
-  <si>
-    <t>edit 24</t>
-  </si>
-  <si>
-    <t>edit 25</t>
-  </si>
-  <si>
-    <t>edit 26</t>
-  </si>
-  <si>
-    <t>edit 27</t>
-  </si>
-  <si>
-    <t>edit 28</t>
-  </si>
-  <si>
-    <t>edit 29</t>
-  </si>
-  <si>
-    <t>group1</t>
-  </si>
-  <si>
-    <t>group2</t>
-  </si>
-  <si>
-    <t>group3</t>
-  </si>
-  <si>
-    <t>group4</t>
-  </si>
-  <si>
-    <t>group5</t>
-  </si>
-  <si>
-    <t>h-192.168.1.1</t>
-  </si>
-  <si>
-    <t>group6</t>
-  </si>
-  <si>
-    <t>group7</t>
-  </si>
-  <si>
-    <t>n-172.17.1.0_24 n-172.17.2.0_25</t>
-  </si>
-  <si>
-    <t>n-172.17.2.0_24</t>
-  </si>
-  <si>
-    <t>group8</t>
-  </si>
-  <si>
-    <t>group9</t>
-  </si>
-  <si>
-    <t>n-10.0.0.0_24</t>
-  </si>
-  <si>
-    <t>n-10.10.0.0_24</t>
-  </si>
-  <si>
-    <t>n-10.100.2.0_29</t>
-  </si>
-  <si>
-    <t>n-10.0.0.0_25</t>
-  </si>
-  <si>
-    <t>n-10.10.0.0_25</t>
-  </si>
-  <si>
-    <t>n-10.100.2.0_30</t>
-  </si>
-  <si>
-    <t>n-10.0.0.0_26</t>
-  </si>
-  <si>
-    <t>n-192.168.1.0_24</t>
-  </si>
-  <si>
-    <t>n-192.168.1.0_25</t>
-  </si>
-  <si>
-    <t>n-192.168.1.0_26</t>
-  </si>
-  <si>
-    <t>n-10.88.12.8_30</t>
-  </si>
-  <si>
-    <t>group10</t>
-  </si>
-  <si>
-    <t>group11</t>
-  </si>
-  <si>
-    <t>group12</t>
-  </si>
-  <si>
-    <t>group13</t>
-  </si>
-  <si>
-    <t>group14</t>
-  </si>
-  <si>
-    <t>h-192.168.182.182</t>
-  </si>
-  <si>
-    <t>h-192.168.1.1 h-10.12.2.2</t>
-  </si>
-  <si>
-    <t>h-10.14.10.10 h-10.12.12.12</t>
-  </si>
-  <si>
-    <t>h-192.168.40.23</t>
-  </si>
-  <si>
-    <t>h-10.13.24.24 h-10.12.12.12</t>
-  </si>
-  <si>
-    <t>h-192.168.2.2</t>
-  </si>
-  <si>
-    <t>h-192.168.3.3 h-192.168.4.4</t>
-  </si>
-  <si>
-    <t>h-10.13.24.24 h-10.12.12.13</t>
-  </si>
-  <si>
-    <t>h-192.168.2.3</t>
-  </si>
-  <si>
-    <t>h-192.168.3.3 h-192.168.4.5</t>
-  </si>
-  <si>
-    <t>h-10.13.24.24 h-10.12.12.14</t>
-  </si>
-  <si>
-    <t>h-192.168.17.13</t>
-  </si>
-  <si>
-    <t>h-10.10.10.10 h-192.168.192.192</t>
-  </si>
-  <si>
-    <t>n-10.10.10.0_24</t>
-  </si>
-  <si>
-    <t>echo-request echo-reply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s-UDP-161 s-TCP-162 s-UDP-162 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> s-TCP-162 s-UDP-162 </t>
-  </si>
-  <si>
-    <t>s-TCP-22</t>
-  </si>
-  <si>
-    <t>s-UDP-3389</t>
-  </si>
-  <si>
-    <t>s-UDP-3390</t>
-  </si>
-  <si>
-    <t>s-UDP-3391</t>
-  </si>
-  <si>
-    <t>s-UDP-3392</t>
-  </si>
-  <si>
-    <t>s-TCP-1423</t>
-  </si>
-  <si>
-    <t>s-TCP-1424</t>
-  </si>
-  <si>
-    <t>comment1</t>
-  </si>
-  <si>
-    <t>comment2</t>
-  </si>
-  <si>
-    <t>comment3</t>
-  </si>
-  <si>
-    <t>comment4</t>
-  </si>
-  <si>
-    <t>comment5</t>
-  </si>
-  <si>
-    <t>comment6</t>
-  </si>
-  <si>
-    <t>comment7</t>
-  </si>
-  <si>
-    <t>comment8</t>
-  </si>
-  <si>
-    <t>comment9</t>
-  </si>
-  <si>
-    <t>comment10</t>
-  </si>
-  <si>
-    <t>comment11</t>
-  </si>
-  <si>
-    <t>comment12</t>
-  </si>
-  <si>
-    <t>comment13</t>
-  </si>
-  <si>
-    <t>comment14</t>
-  </si>
-  <si>
-    <t>comment15</t>
-  </si>
-  <si>
-    <t>comment16</t>
-  </si>
-  <si>
-    <t>comment17</t>
-  </si>
-  <si>
-    <t>comment18</t>
-  </si>
-  <si>
-    <t>comment19</t>
-  </si>
-  <si>
-    <t>comment20</t>
-  </si>
-  <si>
-    <t>comment21</t>
-  </si>
-  <si>
-    <t>comment22</t>
-  </si>
-  <si>
-    <t>comment23</t>
-  </si>
-  <si>
-    <t>comment24</t>
-  </si>
-  <si>
-    <t>comment25</t>
-  </si>
-  <si>
-    <t>comment26</t>
-  </si>
-  <si>
-    <t>comment27</t>
-  </si>
-  <si>
-    <t>comment28</t>
-  </si>
-  <si>
-    <t>comment29</t>
+    <t xml:space="preserve">s-TCP-1571 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-1333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-5555 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-1431 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-445 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-UDP-80 s-UDP-123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-TCP-80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo-request echo-reply </t>
   </si>
 </sst>
 </file>
@@ -819,20 +825,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE9A756-07E5-454B-99E5-4543B8AADFD1}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.90625" customWidth="1"/>
-    <col min="14" max="14" width="22.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="81.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -850,19 +861,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -880,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -900,19 +911,19 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -930,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
         <v>11</v>
@@ -950,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -962,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
@@ -980,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
         <v>11</v>
@@ -988,7 +999,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1006,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
@@ -1030,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
@@ -1038,7 +1049,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1050,19 +1061,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
@@ -1080,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
         <v>11</v>
@@ -1088,7 +1099,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1100,19 +1111,19 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -1130,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
         <v>11</v>
@@ -1138,7 +1149,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1150,19 +1161,19 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
@@ -1180,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
@@ -1188,7 +1199,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1200,19 +1211,19 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
@@ -1230,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s">
         <v>11</v>
@@ -1238,7 +1249,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1250,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -1262,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
@@ -1280,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s">
         <v>11</v>
@@ -1288,7 +1299,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1300,19 +1311,19 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
         <v>6</v>
@@ -1330,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
@@ -1338,7 +1349,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1350,19 +1361,19 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
@@ -1380,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
         <v>11</v>
@@ -1388,7 +1399,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1400,19 +1411,19 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
         <v>6</v>
@@ -1430,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="P12" t="s">
         <v>11</v>
@@ -1438,7 +1449,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1450,19 +1461,19 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
@@ -1480,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
         <v>11</v>
@@ -1488,7 +1499,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1500,19 +1511,19 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
@@ -1530,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="P14" t="s">
         <v>11</v>
@@ -1538,7 +1549,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1550,19 +1561,19 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
@@ -1580,7 +1591,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s">
         <v>11</v>
@@ -1588,7 +1599,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1600,19 +1611,19 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
@@ -1630,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s">
         <v>11</v>
@@ -1638,7 +1649,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1650,19 +1661,19 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
         <v>6</v>
@@ -1680,7 +1691,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s">
         <v>11</v>
@@ -1688,7 +1699,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1700,19 +1711,19 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>
@@ -1730,7 +1741,7 @@
         <v>10</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="P18" t="s">
         <v>11</v>
@@ -1738,7 +1749,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1750,19 +1761,19 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
@@ -1780,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="P19" t="s">
         <v>11</v>
@@ -1788,7 +1799,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1800,19 +1811,19 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
         <v>6</v>
@@ -1830,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="P20" t="s">
         <v>11</v>
@@ -1838,7 +1849,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1850,19 +1861,19 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="J21" t="s">
         <v>6</v>
@@ -1880,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="O21" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s">
         <v>11</v>
@@ -1888,7 +1899,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1900,19 +1911,19 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
         <v>6</v>
@@ -1930,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="P22" t="s">
         <v>11</v>
@@ -1938,7 +1949,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1950,19 +1961,19 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
         <v>6</v>
@@ -1980,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P23" t="s">
         <v>11</v>
@@ -1988,7 +1999,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -2000,19 +2011,19 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
         <v>6</v>
@@ -2030,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="P24" t="s">
         <v>11</v>
@@ -2038,7 +2049,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -2050,19 +2061,19 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
         <v>6</v>
@@ -2080,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="O25" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="P25" t="s">
         <v>11</v>
@@ -2088,7 +2099,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -2100,19 +2111,19 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="J26" t="s">
         <v>6</v>
@@ -2130,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="P26" t="s">
         <v>11</v>
@@ -2138,7 +2149,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2150,19 +2161,19 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J27" t="s">
         <v>6</v>
@@ -2180,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="P27" t="s">
         <v>11</v>
@@ -2188,7 +2199,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2200,19 +2211,19 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
         <v>6</v>
@@ -2230,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="P28" t="s">
         <v>11</v>
@@ -2238,7 +2249,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2250,19 +2261,19 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="J29" t="s">
         <v>6</v>
@@ -2280,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="O29" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P29" t="s">
         <v>11</v>
